--- a/outputs/BBVA FEB-MAR造假2-MSN20250609098/BBVA FEB-MAR造假2-MSN20250609098_audit_report.xlsx
+++ b/outputs/BBVA FEB-MAR造假2-MSN20250609098/BBVA FEB-MAR造假2-MSN20250609098_audit_report.xlsx
@@ -497,7 +497,7 @@
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>生成时间: 2026-01-31 21:15:42</t>
+          <t>生成时间: 2026-02-01 10:39:06</t>
         </is>
       </c>
     </row>
@@ -689,43 +689,53 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-1. (Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)' 对应的总笔数（Total Movimientos Abonos）。提取结果：数值1 = 7。
-2. (Step 2) 遍历 'Detalle de Movimientos Realizados' 部分的所有交易行。总共有28行。
-3. (Step 3) 关键过滤：仅统计 'Abonos' 列有有效数值（非空且不为0）的行。如果某行只有 'Cargo' 列有值，必须忽略。
-4. (Step 4) 计算符合条件的交易总行数。
-【明细统计过程】
-根据规则，逐行检查并列出所有 'Abonos' 列有有效数值的交易（共17笔）：
-1. 第7行：Abono:2.0
-2. 第8行：Abono:600.0
-3. 第10行：Abono:400.0
-4. 第13行：Abono:1000.0
-5. 第15行：Abono:200.0
-6. 第17行：Abono:199.0
-7. 第18行：Abono:16000.0
-8. 第19行：Abono:2100.0
-9. 第20行：Abono:454.0
-10. 第21行：Abono:350.0
-11. 第22行：Abono:275.0
-12. 第23行：Abono:120.0
-13. 第24行：Abono:221.0
-14. 第25行：Abono:65.0
-15. 第26行：Abono:100.0
-16. 第27行：Abono:1000.0
-17. 第28行：Abono:808.0
-统计结果：符合条件的交易总行数（数值2）= 17。
-【校验与决策】
-1. 数值1（来自Comportamiento的入账总笔数）：7
-2. 数值2（来自明细统计的有效Abonos交易笔数）：17
-3. 比较结果：7 ≠ 17，两者不相等。
-4. 根据校验规则（比较1和2是否相等）和决策结果（不相等则输出不一致），判定为：不一致（异常）。
-【最终判定】
-根据规则，两个数值不相等，输出“不一致”，因此 hit=true。</t>
+          <t>规则ID: MSTAR_BBVA_DTL_CNT_ABONOS
+规则名称: 明细交易笔数校验_入账笔数
+执行步骤（严格按照判断逻辑）：
+(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总笔数（Total Movimientos Abonos）。
+- 执行结果：在提供的 'Comportamiento' 部分，'Depósitos / Abonos (+): 7  18,552.00'，因此数值1（来自Comportamiento的总笔数）为 7。
+(Step 2) 遍历 'Detalle de Movimientos Realizados'或raw_transaction_data（交易明细）部分的所有交易行。
+- 执行结果：明细部分总共有 28 行交易记录。
+(Step 3) [关键过滤] 仅统计 'Abonos' 列有有效数值（非空且不为0）的行。如果某行只有 'Cargo' 列有值，必须忽略。
+- 执行结果：根据明细数据，逐行检查 'ABONOS' 字段。
+- 符合条件的交易明细（Abonos列有有效数值）如下（共17笔）：
+  1. 行7: ABONOS:2.0
+  2. 行8: ABONOS:600.0
+  3. 行10: ABONOS:400.0
+  4. 行13: ABONOS:1000.0
+  5. 行15: ABONOS:200.0
+  6. 行17: ABONOS:199.0
+  7. 行18: ABONOS:16000.0
+  8. 行19: ABONOS:2100.0
+  9. 行20: ABONOS:454.0
+  10. 行21: ABONOS:350.0
+  11. 行22: ABONOS:275.0
+  12. 行23: ABONOS:120.0
+  13. 行24: ABONOS:221.0
+  14. 行25: ABONOS:65.0
+  15. 行26: ABONOS:100.0
+  16. 行27: ABONOS:1000.0
+  17. 行28: ABONOS:808.0
+(Step 4) 计算符合条件的交易总行数。
+- 执行结果：统计上述列表，符合条件的交易总行数（数值2，来自明细统计）为 17。
+校验规则（严格按照校验规则）：
+比较1和2是否相等。
+- 数值1（Comportamiento 总笔数）: 7
+- 数值2（明细统计 Abonos 笔数）: 17
+- 比较结果：7 ≠ 17，两者不相等。
+决策结果（严格按照决策结果）：
+如果不相等，输出不一致（异常）。
+- 最终判定：不一致（异常）。
+hit值判定（严格按照逻辑）：
+由于两个数值不相等，输出“不一致”，因此 hit=true（违规/命中）。
+补充说明：
+1. 数据中提供的参考值 '其中包含有效 Abonos (入账) 的交易数: 17' 与手动统计结果一致，确认了数值2的准确性。
+2. 规则仅关注笔数是否一致，不涉及金额或其他指标。尽管明细中存在余额连续性检查失败的情况，但这不影响当前笔数校验规则的判定。</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>数据中提供的参考值‘其中包含有效 Abonos (入账) 的交易数: 17’与手动统计结果一致，进一步确认了数值2的准确性。Comportamiento中记录的笔数（7）与明细中实际存在的有效Abonos交易笔数（17）存在显著差异。</t>
+          <t>Comportamiento 中记录的 Abonos 交易笔数（7笔）与交易明细中实际统计的有效 Abonos 交易笔数（17笔）存在显著差异，判定为不一致。规则执行严格遵循了定义的步骤和逻辑。</t>
         </is>
       </c>
     </row>
@@ -752,30 +762,42 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤1】从'Comportamiento'表格中提取'Retiros / Cargos (-)'对应的总笔数。根据数据，'Retiros / Cargos (-): 21  12,229.31'，因此数值1（来自Comportamiento的总笔数）为：21。
-【执行步骤2】遍历'Detalle de Movimientos Realizados'部分的所有交易行。总共有28行交易明细。
-【执行步骤3】关键过滤：仅统计'Cargos'列有有效数值（非空且不为0）的行。根据数据中提供的参考值'其中包含有效 Cargos (出账) 的交易数: 11'，确认过滤后符合条件的交易总行数为11。为便于人工复核，按原始顺序列出所有Cargos不为空的交易明细：
-1. Cargo:222.0
-2. Cargo:800.0
-3. Cargo:300.0
-4. Cargo:122.4
-5. Cargo:299.0
-6. Cargo:874.0
-9. Cargo:600.0
-11. Cargo:2268.91
-12. Cargo:400.0
-14. Cargo:1000.0
-16. Cargo:1.0
-【执行步骤4】计算符合条件的交易总行数。经统计，上述列出的交易共11笔。数值2（来自明细统计的笔数）为：11。
-【执行校验规则】比较数值1（21）与数值2（11）是否相等。
-【比较结果】数值1（21）不等于数值2（11）。
-【决策结果】根据规则，两个数值不相等，输出“不一致”（异常）。
-【hit判定】根据规则定义，'不一致'对应 hit=true。</t>
+          <t>规则ID: MSTAR_BBVA_DTL_CNT_CARGOS
+规则名称: 明细交易笔数校验_出账笔数
+执行步骤（严格按照判断逻辑）：
+(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总笔数（Total Movimientos Cargos）。
+- 执行结果：在 'Comportamiento' 部分找到 'Retiros / Cargos (-): 21  12,229.31'，在 'total_movimientos' 部分找到 'total_movimientos_cargos: 21'。两者一致，确认数值1为 21。
+(Step 2) 遍历 'Detalle de Movimientos Realizados'（交易明细）部分的所有交易行。
+- 执行结果：明细部分总共有 28 行交易记录。
+(Step 3) [关键过滤] 仅统计 'Cargos' 列有有效数值（非空且不为0）的行。如果某行只有 'Abono' 列有值，必须忽略。
+- 执行结果：逐行检查明细，筛选出 'Cargos' 列有数值（非'无'）的行。符合条件的交易明细如下（共11笔）：
+1. CARGOS:222.0
+2. CARGOS:800.0
+3. CARGOS:300.0
+4. CARGOS:122.4
+5. CARGOS:299.0
+6. CARGOS:874.0
+9. CARGOS:600.0
+11. CARGOS:2268.91
+12. CARGOS:400.0
+14. CARGOS:1000.0
+16. CARGOS:1.0
+(Step 4) 计算符合条件的交易总行数。
+- 执行结果：统计上述列表，符合条件的交易总行数为 11。此数值与数据中提供的参考值'其中包含有效 Cargos (出账) 的交易数: 11'一致。确认数值2为 11。
+校验规则（严格按照校验规则）：
+比较1和2是否相等。
+- 数值1 (来自Comportamiento/total_movimientos): 21
+- 数值2 (来自明细统计): 11
+- 比较结果：21 ≠ 11，两者不相等。
+决策结果（严格按照决策结果）：
+如果不相等，输出不一致（异常）。
+结论：明细中统计的有效出账交易笔数（11笔）与总览中报告的总出账交易笔数（21笔）不一致。
+hit值判定理由：根据规则，两个数值不相等，输出“不一致”，因此 hit=true。</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>数据中'Comportamiento'部分显示的出账总笔数（21）与从交易明细中统计出的有效Cargos笔数（11）严重不符，存在明显的数据不一致。</t>
+          <t>数据中提供的参考值'其中包含有效 Cargos (出账) 的交易数: 11'与手动统计结果一致，确认了数值2的准确性。数值1在文档中多处（Comportamiento和total_movimientos）均明确为21，确认了数值1的准确性。</t>
         </is>
       </c>
     </row>
@@ -802,50 +824,55 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则定义的判断逻辑执行：
-(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)' 对应的总金额。提取结果为：18,552.00。
-(Step 2) 遍历 'Detalle de Movimientos Realizados' 部分。
+          <t>规则ID: MSTAR_BBVA_DTL_AMT_ABONOS
+规则名称: 明细交易金额校验_入账金额
+执行步骤（严格按照判断逻辑）：
+(Step 1) 从 'Comportamiento' 表格中提取 'Depósitos / Abonos (+)'（入账）对应的总金额。
+执行结果：从数据中提取到 'Depósitos / Abonos (+): 7  18,552.00'。数值1 = 18552.00。
+(Step 2) 遍历 'Detalle de Movimientos Realizados' 或raw_transaction_data部分。
+执行结果：已遍历提供的28笔交易明细。
 (Step 3) [关键过滤] 累加所有 'Abonos' 列的数值。忽略 'Cargo' 列的数值。
-(Step 4) 确保金额格式转换正确（处理千分位逗号）。明细中金额无千分位逗号，直接累加。
-【明细数据与计算过程】
-根据规则要求，列出所有 Abonos 列不为空的交易明细（共17笔，与参考值一致）：
-1. 交易7: Abono: 2.0
-2. 交易8: Abono: 600.0
-3. 交易10: Abono: 400.0
-4. 交易13: Abono: 1000.0
-5. 交易15: Abono: 200.0
-6. 交易17: Abono: 199.0
-7. 交易18: Abono: 16000.0
-8. 交易19: Abono: 2100.0
-9. 交易20: Abono: 454.0
-10. 交易21: Abono: 350.0
-11. 交易22: Abono: 275.0
-12. 交易23: Abono: 120.0
-13. 交易24: Abono: 221.0
-14. 交易25: Abono: 65.0
-15. 交易26: Abono: 100.0
-16. 交易27: Abono: 1000.0
-17. 交易28: Abono: 808.0
-求和计算：
-2.0 + 600.0 + 400.0 + 1000.0 + 200.0 + 199.0 + 16000.0 + 2100.0 + 454.0 + 350.0 + 275.0 + 120.0 + 221.0 + 65.0 + 100.0 + 1000.0 + 808.0 = 22,894.0
-【校验规则执行】
-比较 Step 1 的数值（来自 Comportamiento）与 Step 3 的数值（来自明细累加）：
-- 数值1 (Comportamiento): 18,552.00
-- 数值2 (明细累加): 22,894.0
-两者不相等。
-【决策结果】
-根据校验规则：比较1和2是否相等。
-当前结果为：不相等。
-因此，输出：不一致（异常）。
-【hit值判定】
-根据规则：如果两个数值不相等 → 输出“不一致” → hit=true（违规/命中）。
-因此，hit=true。</t>
+执行结果：根据明细，逐笔累加所有非“无”的Abonos金额。明细如下（共17笔）：
+1. 无
+2. 无
+3. 无
+4. 无
+5. 无
+6. 无
+7. 2.0
+8. 600.0
+9. 无
+10. 400.0
+11. 无
+12. 无
+13. 1000.0
+14. 无
+15. 200.0
+16. 无
+17. 199.0
+18. 16000.0
+19. 2100.0
+20. 454.0
+21. 350.0
+22. 275.0
+23. 120.0
+24. 221.0
+25. 65.0
+26. 100.0
+27. 1000.0
+28. 808.0
+(Step 4) 确保金额格式转换正确（处理千分位逗号）。
+执行结果：明细中金额均为数字格式，无需转换。
+求和计算：2.0 + 600.0 + 400.0 + 1000.0 + 200.0 + 199.0 + 16000.0 + 2100.0 + 454.0 + 350.0 + 275.0 + 120.0 + 221.0 + 65.0 + 100.0 + 1000.0 + 808.0 = 21894.0。数值2 = 21894.0。
+校验规则（严格按照校验规则）：比较数值1和数值2是否相等。
+比较结果：数值1 (18552.00) 不等于 数值2 (21894.00)。
+决策结果（严格按照决策结果）：两个数值不相等，输出“不一致”（异常）。
+最终判定：根据规则，hit值在“不一致”时为true。因此，hit=true。</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>明细中Abonos交易笔数为17，与参考值‘有效 Abonos 交易数: 17’一致。计算出的明细总入账金额(22,894.0)与Comportamiento中报告的入账总金额(18,552.00)存在显著差异，判定为不一致。</t>
+          <t>系统提供的参考值'有效 Abonos 交易数: 17'与手动统计的Abonos交易笔数一致。'Comportamiento'中的入账总金额(18552.00)与明细累加结果(21894.00)存在显著差异。差异金额为3342.00。此规则仅关注入账总金额是否一致，不涉及其他异常。</t>
         </is>
       </c>
     </row>
@@ -872,41 +899,42 @@
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>【执行步骤说明】
-严格按照规则定义的判断逻辑执行：
-(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总金额。提取结果为：12,229.31。
-(Step 2) 遍历 'Detalle de Movimientos Realizados' 部分。
+          <t>规则ID: MSTAR_BBVA_DTL_AMT_CARGOS
+规则名称: 明细交易金额校验_出账金额
+执行步骤与结果：
+(Step 1) 从 'Comportamiento' 表格中提取 'Retiros / Cargos (-)'（出账）对应的总金额。
+- 提取结果：数值1 = 12,229.31
+(Step 2) 遍历 'Detalle de Movimientos Realizados' 或raw_transaction_data部分。
+- 已遍历提供的28条明细交易记录。
 (Step 3) [关键过滤] 累加所有 'Cargos' 列的数值。忽略 'Abono' 列的数值。
-(Step 4) 确保金额格式转换正确（处理千分位逗号）。明细中Cargos金额均为数字格式，无需转换。
-【明细数据与计算】
-根据规则要求，列出所有Cargos不为空的交易明细（共11笔，与提供的参考值一致）：
-1. Cargo: 222.0
-2. Cargo: 800.0
-3. Cargo: 300.0
-4. Cargo: 122.4
-5. Cargo: 299.0
-6. Cargo: 874.0
-7. Cargo: 600.0 (第9条记录)
-8. Cargo: 2268.91
-9. Cargo: 400.0 (第12条记录)
-10. Cargo: 1000.0 (第14条记录)
-11. Cargo: 1.0
-求和计算：
-222.0 + 800.0 + 300.0 + 122.4 + 299.0 + 874.0 + 600.0 + 2268.91 + 400.0 + 1000.0 + 1.0 = 6887.31
-【数值比较】
-数值1 (来自Comportamiento): 12,229.31
-数值2 (来自明细累加): 6,887.31
-【校验与决策】
-严格按照校验规则：比较1和2是否相等。
-结果：12,229.31 ≠ 6,887.31，两者不相等。
-根据决策结果：如果不相等，输出不一致（异常）。
-【最终判定】
-由于数值不一致，判定为违规。根据hit值判断逻辑：不相等 → 不一致 → hit=true。</t>
+- 根据数据说明，明细中包含有效 Cargos (出账) 的交易数为 11 笔。
+- 按原始顺序提取并累加所有非“无”的 Cargos 金额：
+  1. 222.0
+  2. 800.0
+  3. 300.0
+  4. 122.4
+  5. 299.0
+  6. 874.0
+  7. 600.0 (行9)
+  8. 2268.91
+  9. 400.0 (行12)
+  10. 1000.0 (行14)
+  11. 1.0 (行16)
+- 求和计算：222.0 + 800.0 + 300.0 + 122.4 + 299.0 + 874.0 + 600.0 + 2268.91 + 400.0 + 1000.0 + 1.0 = 6887.31
+- 提取结果：数值2 = 6,887.31
+(Step 4) 确保金额格式转换正确（处理千分位逗号）。
+- 数值1 (12,229.31) 已转换为 12229.31。
+- 数值2 (6,887.31) 已转换为 6887.31。
+校验规则：比较1和2是否相等。
+- 数值1 (12229.31) 与 数值2 (6887.31) 不相等。
+决策结果：如果不相等，输出不一致（异常）。
+- 结论：明细交易中累加的 Cargos 总额 (6,887.31) 与 Comportamiento 中报告的 Cargos 总额 (12,229.31) 不一致。
+hit 值判定：由于两个数值不相等，根据规则，输出“不一致”，因此 hit=true。</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>明细中Cargos交易笔数（11笔）与Comportamiento中显示的'Retiros / Cargos (-)'笔数（21笔）存在巨大差异，这解释了金额总和为何不一致。但根据规则要求，本规则仅校验金额总和，不校验笔数。金额总和确实不匹配，因此命中规则。</t>
+          <t>明细中Cargos交易笔数（11笔）与Comportamiento中报告的Cargos交易笔数（21笔）存在显著差异，这解释了金额不一致的原因。但本规则仅校验金额，因此基于金额不相等判定为命中。</t>
         </is>
       </c>
     </row>
@@ -936,55 +964,31 @@
           <t>规则ID: MSTAR_BBVA_DTL_AMT_SINGLE
 规则名称: 明细交易金额校验_单笔金额
 执行步骤与结果：
-1. 保持交易列表原始顺序：已严格按照提供的28笔交易顺序处理。
-2. 确定初始锚点(Balance_1)：检查第一行交易（索引1）。该行有'Operacion:4662.42'值，符合条件。因此，Balance_1 = 4662.42。计算起点从下一行（索引2）开始。
-3. 寻找下一个锚点(Balance_2)并迭代核算：
-   - 轮次1：从索引2开始向下遍历，找到下一个有'Operacion'或'SALDO OPERACIÓN'值的行是索引3（'Operacion:3562.42'）。Balance_2 = 3562.42。
-     区间：索引2到索引3（含）。
-     Cargos总和：索引2 (800.0) + 索引3 (300.0) = 1100.0。Abonos总和：0。
-     验证公式：result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2 = 4662.42 - 1100.0 + 0 - 3562.42 = 0.0。
-   - 轮次2：将Balance_2 (3562.42)设为新的Balance_1。向下遍历，找到下一个锚点是索引6（'Operacion:2267.02'）。Balance_2 = 2267.02。
-     区间：索引4到索引6（含）。
-     Cargos总和：索引4 (122.4) + 索引5 (299.0) + 索引6 (874.0) = 1295.4。Abonos总和：0。
-     result = 3562.42 - 1295.4 + 0 - 2267.02 = 0.0。
-   - 轮次3：将Balance_2 (2267.02)设为新的Balance_1。向下遍历，找到下一个锚点是索引8（'Operacion:2869.02'）。Balance_2 = 2869.02。
-     区间：索引7到索引8（含）。
-     Cargos总和：0。Abonos总和：索引7 (2.0) + 索引8 (600.0) = 602.0。
-     result = 2267.02 - 0 + 602.0 - 2869.02 = 0.0。
-   - 轮次4：将Balance_2 (2869.02)设为新的Balance_1。向下遍历，找到下一个锚点是索引11（'Operacion:400.11'）。Balance_2 = 400.11。
-     区间：索引9到索引11（含）。
-     Cargos总和：索引9 (600.0) + 索引11 (2268.91) = 2868.91。Abonos总和：索引10 (400.0)。
-     result = 2869.02 - 2868.91 + 400.0 - 400.11 = 0.0。
-   - 轮次5：将Balance_2 (400.11)设为新的Balance_1。向下遍历，找到下一个锚点是索引12（'Operacion:0.11'）。Balance_2 = 0.11。
-     区间：索引12（仅该行，因为Balance_1和Balance_2在同一行？）。注意：根据逻辑，区间是Balance_1（不含）到Balance_2（含）。Balance_1来自索引11的Operacion，Balance_2来自索引12的Operacion。因此区间是索引12（含）。
-     Cargos总和：索引12 (400.0)。Abonos总和：0。
-     result = 400.11 - 400.0 + 0 - 0.11 = 0.0。
-   - 轮次6：将Balance_2 (0.11)设为新的Balance_1。向下遍历，找到下一个锚点是索引14（'Operacion:0.11'）。Balance_2 = 0.11。
-     区间：索引13到索引14（含）。
-     Cargos总和：索引14 (1000.0)。Abonos总和：索引13 (1000.0)。
-     result = 0.11 - 1000.0 + 1000.0 - 0.11 = 0.0。
-   - 轮次7：将Balance_2 (0.11)设为新的Balance_1。向下遍历，找到下一个锚点是索引15（'Operacion:200.11'）。Balance_2 = 200.11。
-     区间：索引15（仅该行）。
-     Cargos总和：0。Abonos总和：索引15 (200.0)。
-     result = 0.11 - 0 + 200.0 - 200.11 = 0.0。
-   - 轮次8：将Balance_2 (200.11)设为新的Balance_1。向下遍历，找到下一个锚点是索引17（'Operacion:0.11'）。Balance_2 = 0.11。
-     区间：索引16到索引17（含）。
-     Cargos总和：索引16 (1.0)。Abonos总和：索引17 (199.0)。
-     result = 200.11 - 1.0 + 199.0 - 0.11 = 0.0。
-   - 轮次9：将Balance_2 (0.11)设为新的Balance_1。向下遍历，找到下一个锚点是索引19（'Operacion:2719.31'）。Balance_2 = 2719.31。
-     区间：索引18到索引19（含）。
-     Cargos总和：0。Abonos总和：索引18 (16000.0) + 索引19 (2100.0) = 18100.0。
-     result = 0.11 - 0 + 18100.0 - 2719.31 = 15380.8。
-     **发现不一致：result = 15380.8，不为0。**
-     由于已发现不一致，根据决策结果，无需继续后续轮次。
-校验规则：记录每一个轮次中步骤4的result值，是否所有的result都为0。
-决策结果：因为轮次9的result不为0，所以输出不一致（异常）。
-hit值判定：根据决策结果，存在不一致，因此hit=true。</t>
+1. 保持交易列表原始顺序：已按提供的28笔交易原始顺序处理。
+2. 确定初始锚点(Balance_1)：第1行交易有'OPERACIÓN'值4662.42，将其记为Balance_1。计算起点从第2行开始。
+3. 寻找下一个锚点(Balance_2)并迭代核算：按照规则逻辑，遍历列表，找到下一个有'OPERACIÓN'或'SALDO OPERACIÓN'的行作为Balance_2，然后计算区间内Cargos和Abonos的累加和，并验证公式 result = Balance_1 - Sum(Cargos) + Sum(Abonos) - Balance_2 是否为0。
+详细核算轮次（共13轮）：
+- 轮次1 (行1-&gt;3): Balance_1=4662.42, Balance_2=3562.42, Sum(Cargos)=222.0+800.0=1022.0, Sum(Abonos)=0, result=4662.42-1022.0+0-3562.42=0.0 -&gt; 通过。
+- 轮次2 (行3-&gt;6): Balance_1=3562.42, Balance_2=2267.02, Sum(Cargos)=300.0+122.4+299.0+874.0=1595.4, Sum(Abonos)=0, result=3562.42-1595.4+0-2267.02=0.0 -&gt; 通过。
+- 轮次3 (行6-&gt;8): Balance_1=2267.02, Balance_2=2869.02, Sum(Cargos)=0, Sum(Abonos)=2.0+600.0=602.0, result=2267.02-0+602.0-2869.02=0.0 -&gt; 通过。
+- 轮次4 (行8-&gt;11): Balance_1=2869.02, Balance_2=400.11, Sum(Cargos)=600.0+2268.91=2868.91, Sum(Abonos)=400.0, result=2869.02-2868.91+400.0-400.11=0.0 -&gt; 通过。
+- 轮次5 (行11-&gt;12): Balance_1=400.11, Balance_2=0.11, Sum(Cargos)=400.0, Sum(Abonos)=0, result=400.11-400.0+0-0.11=0.0 -&gt; 通过。
+- 轮次6 (行12-&gt;14): Balance_1=0.11, Balance_2=0.11, Sum(Cargos)=1000.0, Sum(Abonos)=1000.0, result=0.11-1000.0+1000.0-0.11=0.0 -&gt; 通过。
+- 轮次7 (行14-&gt;15): Balance_1=0.11, Balance_2=200.11, Sum(Cargos)=0, Sum(Abonos)=200.0, result=0.11-0+200.0-200.11=0.0 -&gt; 通过。
+- 轮次8 (行15-&gt;17): Balance_1=200.11, Balance_2=0.11, Sum(Cargos)=1.0, Sum(Abonos)=199.0, result=200.11-1.0+199.0-0.11=398.0 -&gt; 不通过。
+- 轮次9 (行17-&gt;19): Balance_1=0.11, Balance_2=2719.31, Sum(Cargos)=0, Sum(Abonos)=16000.0+2100.0=18100.0, result=0.11-0+18100.0-2719.31=15380.8 -&gt; 不通过。
+- 轮次10 (行19-&gt;20): Balance_1=2719.31, Balance_2=2265.31, Sum(Cargos)=0, Sum(Abonos)=454.0, result=2719.31-0+454.0-2265.31=908.0 -&gt; 不通过。
+- 轮次11 (行20-&gt;25): Balance_1=2265.31, Balance_2=1934.31, Sum(Cargos)=0, Sum(Abonos)=350.0+275.0+120.0+221.0+65.0=1031.0, result=2265.31-0+1031.0-1934.31=1362.0 -&gt; 不通过。
+- 轮次12 (行25-&gt;27): Balance_1=1934.31, Balance_2=834.31, Sum(Cargos)=0, Sum(Abonos)=100.0+1000.0=1100.0, result=1934.31-0+1100.0-834.31=2200.0 -&gt; 不通过。
+- 轮次13 (行27-&gt;28): Balance_1=834.31, Balance_2=26.31, Sum(Cargos)=0, Sum(Abonos)=808.0, result=834.31-0+808.0-26.31=1616.0 -&gt; 不通过。
+校验规则：检查所有轮次的result值是否为0。
+决策结果：由于轮次8、9、10、11、12、13的result值不为0，因此输出不一致（异常）。
+结论：存在多个区间的余额连续性校验失败，明细交易金额与记录的余额不匹配。</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>在轮次9的核算中发现不一致（result = 15380.8）。该区间（索引18和19）的Abonos总和为18100.0，但根据公式计算，预期Balance_2应为18100.11，而实际提供的Balance_2（Operacion）为2719.31，导致差额。这可能是由于Operacion值记录错误或区间内存在未列出的隐含交易。根据规则逻辑，只要任意轮次result不为0，即判定为不一致。；已根据 evidence 结尾的明确结论自动修正 hit 值为 True</t>
+          <t>系统提供的内部计算结论（FAIL DETECTED）与手动执行规则逻辑的结果一致，确认存在异常。</t>
         </is>
       </c>
     </row>
@@ -1011,8 +1015,8 @@
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>执行步骤1：从数据中获取模糊匹配包含'Periodo'的信息。找到内容：'Periodo: DEL 13/02/2025 AL 12/03/2025'。解析得到日期区间为：[DEL 13/02/2025, AL 12/03/2025]。
-执行步骤2：从'Detalle de Movimientos Realizados'中提取所有交易的'Oper'和'Liq'日期。所有日期明细如下（格式为日/月）：
+          <t>执行步骤1：从提供的数据中获取模糊匹配包含'Periodo'的信息。找到内容：'Periodo: DEL 13/02/2025 AL 12/03/2025'。解析得到日期区间为：[DEL 13/02/2025, AL 12/03/2025]。
+执行步骤2：从'Detalle de Movimientos Realizados'中提取所有交易的OPER和LIQ日期。明细共28笔，交易笔数少于30笔，因此列出所有日期明细如下：
 1. Oper:13/FEB, Liq:13/FEB
 2. Oper:15/FEB, Liq:17/FEB
 3. Oper:15/FEB, Liq:17/FEB
@@ -1041,20 +1045,17 @@
 26. Oper:08/MAR, Liq:10/MAR
 27. Oper:08/MAR, Liq:10/MAR
 28. Oper:10/MAR, Liq:10/MAR
-将月份转换为数字并与年份2025结合，得到完整日期。计算所有日期中的最小日期（min_date）和最大日期（max_date）。
-最小日期（min_date）：从Oper和Liq中找出最早日期。最早日期为13/FEB/2025（对应2025-02-13）。
-最大日期（max_date）：从Oper和Liq中找出最晚日期。最晚日期为10/MAR/2025（对应2025-03-10）。
-执行步骤3（校验规则）：判断步骤2中的min_date（2025-02-13）和max_date（2025-03-10）是否都在步骤1的日期区间[2025-02-13, 2025-03-12]范围内。
-- min_date (2025-02-13) 等于区间起始日 (2025-02-13)，在范围内。
-- max_date (2025-03-10) 早于区间结束日 (2025-03-12)，在范围内。
-结论：min_date和max_date均在Periodo日期区间内。
-决策结果：根据规则，输出“一致（无异常）”。
-因此，hit=false。</t>
+计算最小日期（min_date）：从所有OPER和LIQ日期中找出最早日期。OPER最早为13/FEB（2025-02-13），LIQ最早为13/FEB（2025-02-13）。因此min_date = 13/FEB/2025。
+计算最大日期（max_date）：从所有OPER和LIQ日期中找出最晚日期。OPER最晚为10/MAR（2025-03-10），LIQ最晚为10/MAR（2025-03-10）。因此max_date = 10/MAR/2025。
+执行校验规则：判断步骤2中的min_date（13/FEB/2025）和max_date（10/MAR/2025）是否都在步骤1的日期区间[DEL 13/02/2025, AL 12/03/2025]范围内。
+比较结果：min_date（13/02/2025）等于区间起始日（13/02/2025），在区间内。max_date（10/03/2025）早于区间结束日（12/03/2025），在区间内。
+决策结果：min_date和max_date均在步骤1的日期区间范围内，因此输出“一致（无异常）”。
+判定理由：根据规则，只要min_date和max_date在区间内即判定为一致。当前规则仅校验日期一致性，不要求日期完全覆盖整个区间。因此hit=false。</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>规则仅校验min_date和max_date是否在Periodo区间内，不要求完全覆盖整个区间。经核对，所有交易日期均在区间内，故判定为一致。</t>
+          <t>规则仅校验交易明细中的最小和最大日期是否在报告声明的Periodo区间内。经核对，明细日期范围[13/FEB/2025, 10/MAR/2025]完全落在[13/02/2025, 12/03/2025]之内，符合规则要求。系统自动进行的余额连续性检查发现多处失败，但这属于其他规则（如金额连续性）的校验范围，根据'严禁跨规则连坐'原则，不影响本日期一致性规则的判定。</t>
         </is>
       </c>
     </row>
@@ -1081,16 +1082,16 @@
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>步骤1执行结果：已从‘Detalle de Movimientos Realizados’中提取所有28笔交易的‘描述’字段。
-步骤2执行结果：已将28条描述翻译为中文。翻译后的描述主要涉及：药店消费、ATM取款、微软商店消费、餐厅消费、SPEI转账（接收和发送）、话费支付、工资入账、第三方账户支付等。
-校验规则执行：将翻译后的中文描述与规则定义的高风险职业关键词列表逐一比对。关键词列表包括：现金密集型业务；小型零售商和街头摊贩；夜总会；酒吧；娱乐场所经营者；灰色；非法行业关联者；未注册或非正式的安保服务提供商；涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介；可能与贩毒或有组织犯罪相关的幌子企业；欺诈高发行业；不受监管的汽车经销商或中介；收入不规律或无法核实的自雇人士；在汽车金融行业工作的个人；独立或未注册的汽车维修店员工。
-比对结论：所有28条翻译后的描述均未包含上述任意关键词。交易描述内容均为日常消费、转账、工资等常规银行业务，未发现与高风险职业相关的描述。
-决策结果：根据规则，全部描述均未命中关键词，输出‘正常’。</t>
+          <t>步骤1执行结果：已从'Detalle de Movimientos Realizados'中提取所有28笔交易的'描述'字段。
+步骤2执行结果：已将28条描述翻译为中文。翻译后的描述主要涉及：药店消费（FARM SAN PABLO, FARM DEL AHORRO）、ATM取款、餐厅消费（TOKS）、软件商店消费（MSFT STORE）、SPEI转账（接收和发送，涉及个人、公司如ATMX TECNOLOGIA、MERCADO PAGO、DIGITAL DECK SAPI DE CV等）、话费支付（MI ATT A APP PS）、工资入账（PAGO DE NOMINA PENSIONES）、第三方账户支付（PAGO CUENTA DE TERCERO）。
+校验规则执行结果：将翻译后的所有描述与规则定义的高风险职业关键词列表逐一比对。关键词列表包括：现金密集型业务；小型零售商和街头摊贩；夜总会；酒吧；娱乐场所经营者；灰色；非法行业关联者；未注册或非正式的安保服务提供商；涉嫌贷款翻转或文件造假的汽车贷款经纪人或中介；可能与贩毒或有组织犯罪相关的幌子企业；欺诈高发行业；不受监管的汽车经销商或中介；收入不规律或无法核实的自雇人士；在汽车金融行业工作的个人；独立或未注册的汽车维修店员工。
+比对结论：所有28条翻译后的描述均未包含上述任意关键词。交易描述主要为日常消费、工资、个人间转账及与正规公司的交易，未发现与高风险职业相关的描述。
+决策结果：由于未命中任何关键词，输出为“正常”。</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>规则要求检查交易描述是否包含特定高风险职业关键词。经逐条翻译和比对，未发现任何匹配项。因此判定为未命中（hit=false）。</t>
+          <t>规则仅检查交易描述（DESCRIPCION）是否包含特定高风险职业关键词。分析基于提供的28条交易描述，未发现匹配项。余额连续性检查失败等其他数据异常不属于本规则校验范围，不影响本规则判定。</t>
         </is>
       </c>
     </row>
@@ -1120,35 +1121,41 @@
           <t>规则ID: MSTAR_BBVA_DTL_ANAL_FAST_IO
 规则名称: 交易明细分析_快进快出
 执行步骤与结果：
-1. 步骤1：已获取'Detalle de Movimientos Realizados'中所有28条记录，并按OPER日期升序排序（数据已按此顺序提供）。
-2. 步骤2：统计所有记录中ABONOS取值不为空的总记录数。根据数据中提供的参考值'有效 Abonos (入账) 的交易数: 17'，确定 total_cargo_cnt = 17。
-3. 步骤3-6：从第一条记录开始，逐一查找ABONOS不为空的行作为起始行，并执行匹配逻辑。
-   - 起始行1 (第7条记录): OPER1=20/FEB, ABONOS1=2.0。向下查找CARGOS=2.0的记录，未找到。无匹配，不产生result。
-   - 起始行2 (第8条记录): OPER1=20/FEB, ABONOS1=600.0。向下查找CARGOS=600.0的记录，在第9条记录找到（Cargo:600.0）。OPER2=21/FEB。计算间隔天数：21/FEB - 20/FEB = 1天。result=1。
-   - 起始行3 (第10条记录): OPER1=21/FEB, ABONOS1=400.0。向下查找CARGOS=400.0的记录，在第12条记录找到（Cargo:400.0）。OPER2=22/FEB。计算间隔天数：22/FEB - 21/FEB = 1天。result=1。
-   - 起始行4 (第13条记录): OPER1=25/FEB, ABONOS1=1000.0。向下查找CARGOS=1000.0的记录，在第14条记录找到（Cargo:1000.0）。OPER2=25/FEB。计算间隔天数：25/FEB - 25/FEB = 0天。result=0。
-   - 起始行5 (第15条记录): OPER1=27/FEB, ABONOS1=200.0。向下查找CARGOS=200.0的记录，未找到。无匹配，不产生result。
-   - 起始行6 (第17条记录): OPER1=02/MAR, ABONOS1=199.0。向下查找CARGOS=199.0的记录，未找到。无匹配，不产生result。
-   - 起始行7 (第18条记录): OPER1=04/MAR, ABONOS1=16000.0。向下查找CARGOS=16000.0的记录，未找到。无匹配，不产生result。
-   - 起始行8 (第19条记录): OPER1=04/MAR, ABONOS1=2100.0。向下查找CARGOS=2100.0的记录，未找到。无匹配，不产生result。
-   - 起始行9 (第20条记录): OPER1=06/MAR, ABONOS1=454.0。向下查找CARGOS=454.0的记录，未找到。无匹配，不产生result。
-   - 起始行10 (第21条记录): OPER1=07/MAR, ABONOS1=350.0。向下查找CARGOS=350.0的记录，未找到。无匹配，不产生result。
-   - 起始行11 (第22条记录): OPER1=07/MAR, ABONOS1=275.0。向下查找CARGOS=275.0的记录，未找到。无匹配，不产生result。
-   - 起始行12 (第23条记录): OPER1=07/MAR, ABONOS1=120.0。向下查找CARGOS=120.0的记录，未找到。无匹配，不产生result。
-   - 起始行13 (第24条记录): OPER1=07/MAR, ABONOS1=221.0。向下查找CARGOS=221.0的记录，未找到。无匹配，不产生result。
-   - 起始行14 (第25条记录): OPER1=07/MAR, ABONOS1=65.0。向下查找CARGOS=65.0的记录，未找到。无匹配，不产生result。
-   - 起始行15 (第26条记录): OPER1=08/MAR, ABONOS1=100.0。向下查找CARGOS=100.0的记录，未找到。无匹配，不产生result。
-   - 起始行16 (第27条记录): OPER1=08/MAR, ABONOS1=1000.0。向下查找CARGOS=1000.0的记录，未找到。无匹配，不产生result。
-   - 起始行17 (第28条记录): OPER1=10/MAR, ABONOS1=808.0。向下查找CARGOS=808.0的记录，未找到。无匹配，不产生result。
-4. 校验规则1：记录每个轮次中步骤5的result值，如果result&lt;=1，则result_total加1。根据以上分析，产生result的轮次有3个（起始行2、3、4），其result值分别为1、1、0，均&lt;=1。因此，result_total = 3。
-5. 校验规则2：计算ratio = result_total / total_cargo_cnt = 3 / 17 ≈ 0.1765。
-6. 决策结果：规则规定，如果ratio &gt; 0.8，则输出“命中快进快出（异常）”；如果ratio &lt;= 0.8，则输出“未命中快进快出（无异常）”。当前ratio (0.1765) &lt;= 0.8，因此输出“未命中快进快出（无异常）”。
-最终判定：根据决策结果，未命中快进快出规则，无异常。因此 hit=false。</t>
+步骤1：已取Detalle de Movimientos Realizados中所有28条记录，并按OPER日期升序排序（数据已按此顺序提供）。
+步骤2：统计所有记录中ABONOS取值不为空的总记录数。根据数据中提供的参考值‘有效 Abonos (入账) 交易数: 17’，因此 total_cargo_cnt = 17。
+步骤3-6：按照规则逻辑，从第一条记录开始，逐一查找ABONOS不为空的行作为起始行，并寻找其最近的下一个CARGOS值与ABONOS1相等的记录，计算OPER日期间隔天数(result)。
+具体轮次分析（因总交易笔数28笔，Abonos交易17笔，符合‘少于30笔’的条件，列出所有用于计算的交易明细）：
+1. 起始行(第7行): ABONOS1=2.0, OPER1=20/FEB。向下查找CARGOS=2.0的记录，未找到。本轮无匹配，result不计算，不计入result_total。
+2. 起始行(第8行): ABONOS1=600.0, OPER1=20/FEB。向下查找CARGOS=600.0的记录，找到第9行，CARGOS=600.0, OPER2=21/FEB。OPER1(20/FEB)与OPER2(21/FEB)间隔天数为1天。result=1 &lt;=1，result_total计数加1。
+3. 起始行(第10行): ABONOS1=400.0, OPER1=21/FEB。向下查找CARGOS=400.0的记录，找到第12行，CARGOS=400.0, OPER2=22/FEB。间隔天数为1天。result=1 &lt;=1，result_total计数加1。
+4. 起始行(第13行): ABONOS1=1000.0, OPER1=25/FEB。向下查找CARGOS=1000.0的记录，找到第14行，CARGOS=1000.0, OPER2=25/FEB。间隔天数为0天。result=0 &lt;=1，result_total计数加1。
+5. 起始行(第15行): ABONOS1=200.0, OPER1=27/FEB。向下查找CARGOS=200.0的记录，未找到。本轮无匹配，不计入。
+6. 起始行(第17行): ABONOS1=199.0, OPER1=02/MAR。向下查找CARGOS=199.0的记录，未找到。本轮无匹配，不计入。
+7. 起始行(第18行): ABONOS1=16000.0, OPER1=04/MAR。向下查找CARGOS=16000.0的记录，未找到。本轮无匹配，不计入。
+8. 起始行(第19行): ABONOS1=2100.0, OPER1=04/MAR。向下查找CARGOS=2100.0的记录，未找到。本轮无匹配，不计入。
+9. 起始行(第20行): ABONOS1=454.0, OPER1=06/MAR。向下查找CARGOS=454.0的记录，未找到。本轮无匹配，不计入。
+10. 起始行(第21行): ABONOS1=350.0, OPER1=07/MAR。向下查找CARGOS=350.0的记录，未找到。本轮无匹配，不计入。
+11. 起始行(第22行): ABONOS1=275.0, OPER1=07/MAR。向下查找CARGOS=275.0的记录，未找到。本轮无匹配，不计入。
+12. 起始行(第23行): ABONOS1=120.0, OPER1=07/MAR。向下查找CARGOS=120.0的记录，未找到。本轮无匹配，不计入。
+13. 起始行(第24行): ABONOS1=221.0, OPER1=07/MAR。向下查找CARGOS=221.0的记录，未找到。本轮无匹配，不计入。
+14. 起始行(第25行): ABONOS1=65.0, OPER1=07/MAR。向下查找CARGOS=65.0的记录，未找到。本轮无匹配，不计入。
+15. 起始行(第26行): ABONOS1=100.0, OPER1=08/MAR。向下查找CARGOS=100.0的记录，未找到。本轮无匹配，不计入。
+16. 起始行(第27行): ABONOS1=1000.0, OPER1=08/MAR。向下查找CARGOS=1000.0的记录，未找到。本轮无匹配，不计入。
+17. 起始行(第28行): ABONOS1=808.0, OPER1=10/MAR。向下查找CARGOS=808.0的记录，未找到。本轮无匹配，不计入。
+校验规则执行：
+1. 记录每个轮次中result值。符合result&lt;=1的轮次有：轮次2(600.0)、轮次3(400.0)、轮次4(1000.0)。因此 result_total = 3。
+2. 计算 ratio = result_total / total_cargo_cnt = 3 / 17 ≈ 0.1765。
+决策结果执行：
+规则要求：如果ratio &gt; 0.8，输出“命中快进快出（异常）”；如果ratio &lt;= 0.8，输出“未命中快进快出（无异常）”。
+计算得 ratio ≈ 0.1765 &lt;= 0.8，因此应输出“未命中快进快出（无异常）”。
+hit值判断：
+根据决策结果，规则未命中（无异常），因此 hit = false。
+注意：在分析过程中，发现数据存在余额连续性检查失败的情况，但根据关键原则，本规则仅关注快进快出比例，不因其他异常而改变当前规则的判定。因此，判定结果严格基于本规则的计算。</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>分析严格遵循规则定义的逻辑步骤。总共有17笔有效Abonos交易，其中仅3笔找到了金额匹配且间隔天数&lt;=1的Cargos交易。计算出的比例(3/17)远低于阈值0.8，因此判定为无异常。</t>
+          <t>严格按照规则定义的逻辑执行。计算出的快进快出比例(0.1765)未超过阈值0.8，因此判定为无异常。尽管数据存在其他不一致（如余额校验失败），但根据‘严禁跨规则连坐’原则，不影响本规则的判定。；已根据 evidence 结尾的明确结论自动修正 hit 值为 False</t>
         </is>
       </c>
     </row>
@@ -1175,45 +1182,58 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>执行步骤1：获取解析后Detalle de Movimientos Realizados部分的description对应的所有的值。
-已获取所有28笔交易的描述（DESCRIPCION）字段。
-执行校验规则：判断所有描述值是否包含以下任意关键词：Apuesta，médico / médic，juego。
-逐笔检查结果：
-1. FARM SAN PABLO RFC: PPL 961114GZ1 10:45 AUT: 534131 -&gt; 不包含关键词。
-2. RETIRO CAJERO AUTOMATICO FEB15 14:13 BBVA B023 FOLIO:8526 -&gt; 不包含关键词。
-3. RETIRO CAJERO AUTOMATICO FEB15 14:15 BBVA B023 FOLIO:8530 -&gt; 不包含关键词。
-4. FARM DEL AHORRO RFC: CFC 110121742 18:19 AUT: 619962 -&gt; 不包含关键词。
-5. MSFT STORE RFC: MME 910620Q85 17:08 AUT: 940435 -&gt; 不包含关键词。
-6. TOKS RC SAN MIGUEL RFC: RTO 840921RE4 16:51 AUT: 343999 -&gt; 不包含关键词。
-7. SPEI RECIBIDOMercado Pago 1234567MERCADO*PAGO 00722969010622928160 CPO102907595674 LUIS ALBERTO FERNANDEZ GARCIA -&gt; 不包含关键词。
-8. SPEI RECIBIDOTRANSFER 0697909Payment 00684180093000000007 2025022090684AWS093B2257DF9B0C ATMX TECNOLOGIA S.A. DE C.V. -&gt; 不包含关键词。
-9. SPEI ENVIADO AZTECA 0502250viaje 00004027665820229061 MBAN01002502210055790025 Fernando Trejo Peña -&gt; 不包含关键词。
-10. SPEI RECIBIDOAZTECA 2247230pago 00127180013023782852 250224070027657453I HERNANDEZ PALACIO OMAR EDGAR -&gt; 不包含关键词。
-11. MI ATT A APP PS RFC: CNM 980114PI2 03:24 AUT: 277353 -&gt; 不包含关键词。
-12. SPEI ENVIADO AZTECA 0502250m 00004027665873176359 MBAN01002502240062208836 Ofelia Alejandra Jimenez -&gt; 不包含关键词。
-13. SPEI RECIBIDOBANAMEX 0250225transf 00002180701851485541 085901592990305657 OMAR EDGAR,HERNANDEZ/PALACIO -&gt; 不包含关键词。
-14. SPEI ENVIADO TRANSFER 0502250pago prestamo 25 02 2025 00684180093021753922 MBAN01002502250071057470 Yeye Cash -&gt; 不包含关键词。
-15. SPEI RECIBIDOAZTECA 2247230acta 00127180013692821607 250227010109232653I JIMENEZ FERNANDEZ OFELIA ALEJANDRA -&gt; 不包含关键词。
-16. SPEI ENVIADO AZTECA 0502250prueba 00004831121200462522 MBAN01002503030098623680 Bruno Gabriel Garcia Solares -&gt; 不包含关键词。
-17. SPEI ENVIADO AZTECA 0502250brunito 00004831121200462522 MBAN01002503030098639775 Bruno Gabriel Garcia Solares -&gt; 不包含关键词。
-18. PAGO DE NOMINA PENSIONES BANCOMER SA DE CV GFB -&gt; 不包含关键词。
-19. SPEI ENVIADO BANORTE 0502250colegMar25AaronFdz5toAzul 00072180006515343764 MBAN01002503040055267526 Abraham Lincoln SC -&gt; 不包含关键词。
-20. FARM SAN PABLO RFC: PPL 961114GZ1 14:04 AUT: 439763 -&gt; 不包含关键词。
-21. SPEI RECIBIDOSTP 0140714Prestamo Cozmo 0140714 00646180502800000008 Cozmo00294536 DIGITAL DECK SAPI DE CV SOFOM ENR -&gt; 不包含关键词。
-22. PAGO CUENTA DE TERCERO BNET 1526105946 viaje -&gt; 不包含关键词。
-23. SPEI ENVIADO INBURSA 0502250viaje 00005399759406093376 MBAN01002503070069692550 Jorge Garcia -&gt; 不包含关键词。
-24. PAGO CUENTA DE TERCERO BNET 1598088118 viaje -&gt; 不包含关键词。
-25. PAGO CUENTA DE TERCERO BNET 1533862302 compra -&gt; 不包含关键词。
-26. SPEI ENVIADO AZTECA 0502250A 00004027665873176359 MBAN01002503100074029764 Ofelia Alejandra Jimenez -&gt; 不包含关键词。
-27. SPEI ENVIADO AZTECA 0502250Bien 00004831121200462522 MBAN01002503100074422200 Bruno Gabriel Garcia Solares -&gt; 不包含关键词。
-28. SPEI ENVIADO STP 05022500140714 00646180502800713654 MBAN01002503110081925204 Digital Deck SAPI de CV SOFOM ENR -&gt; 不包含关键词。
-决策结果：所有28笔交易的描述均未命中关键词（Apuesta，médico / médic，juego）。因此，输出正常。
-结论：规则未命中，hit=false。</t>
+          <t>规则ID: MSTAR_BBVA_DTL_ANAL_ABN_REM
+规则名称: 交易明细分析_异常备注
+执行步骤（严格按照判断逻辑）：
+1. 获取解析后Detalle de Movimientos Realizados部分的description对应的所有的值。
+   - 已从提供的28笔交易明细中提取所有“描述”字段的值。
+校验规则（严格按照校验规则）：
+2. 判断所有描述值是否包含以下任意关键词：Apuesta，médico / médic，juego。
+   - 对28条描述逐一进行关键词匹配检查。
+   - 检查结果：未在任何一条描述中发现关键词“Apuesta”、“médico”、“médic”或“juego”。
+决策结果（严格按照决策结果）：
+3. 命中任意一个关键词，输出异常；全部都没命中，输出正常。
+   - 由于所有描述均未命中关键词，因此输出“正常”。
+关键交易明细（总笔数28笔，少于30笔，列出所有描述用于复核）：
+1. FARM SAN PABLO RFC: PPL 961114GZ1 10:45 AUT: 534131
+2. RETIRO CAJERO AUTOMATICO FEB15 14:13 BBVA B023 FOLIO:8526
+3. RETIRO CAJERO AUTOMATICO FEB15 14:15 BBVA B023 FOLIO:8530
+4. FARM DEL AHORRO RFC: CFC 110121742 18:19 AUT: 619962
+5. MSFT STORE RFC: MME 910620Q85 17:08 AUT: 940435
+6. TOKS RC SAN MIGUEL RFC: RTO 840921RE4 16:51 AUT: 343999
+7. SPEI RECIBIDOMercado Pago 1234567MERCADO*PAGO 00722969010622928160 CPO102907595674 LUIS ALBERTO FERNANDEZ GARCIA
+8. SPEI RECIBIDOTRANSFER 0697909Payment 00684180093000000007 2025022090684AWS093B2257DF9B0C ATMX TECNOLOGIA S.A. DE C.V.
+9. SPEI ENVIADO AZTECA 0502250viaje 00004027665820229061 MBAN01002502210055790025 Fernando Trejo Peña
+10. SPEI RECIBIDOAZTECA 2247230pago 00127180013023782852 250224070027657453I HERNANDEZ PALACIO OMAR EDGAR
+11. MI ATT A APP PS RFC: CNM 980114PI2 03:24 AUT: 277353
+12. SPEI ENVIADO AZTECA 0502250m 00004027665873176359 MBAN01002502240062208836 Ofelia Alejandra Jimenez
+13. SPEI RECIBIDOBANAMEX 0250225transf 00002180701851485541 085901592990305657 OMAR EDGAR,HERNANDEZ/PALACIO
+14. SPEI ENVIADO TRANSFER 0502250pago prestamo 25 02 2025 00684180093021753922 MBAN01002502250071057470 Yeye Cash
+15. SPEI RECIBIDOAZTECA 2247230acta 00127180013692821607 250227010109232653I JIMENEZ FERNANDEZ OFELIA ALEJANDRA
+16. SPEI ENVIADO AZTECA 0502250prueba 00004831121200462522 MBAN01002503030098623680 Bruno Gabriel Garcia Solares
+17. SPEI ENVIADO AZTECA 0502250brunito 00004831121200462522 MBAN01002503030098639775 Bruno Gabriel Garcia Solares
+18. PAGO DE NOMINA PENSIONES BANCOMER SA DE CV GFB
+19. SPEI ENVIADO BANORTE 0502250colegMar25AaronFdz5toAzul 00072180006515343764 MBAN01002503040055267526 Abraham Lincoln SC
+20. FARM SAN PABLO RFC: PPL 961114GZ1 14:04 AUT: 439763
+21. SPEI RECIBIDOSTP 0140714Prestamo Cozmo 0140714 00646180502800000008 Cozmo00294536 DIGITAL DECK SAPI DE CV SOFOM ENR
+22. PAGO CUENTA DE TERCERO BNET 1526105946 viaje
+23. SPEI ENVIADO INBURSA 0502250viaje 00005399759406093376 MBAN01002503070069692550 Jorge Garcia
+24. PAGO CUENTA DE TERCERO BNET 1598088118 viaje
+25. PAGO CUENTA DE TERCERO BNET 1533862302 compra
+26. SPEI ENVIADO AZTECA 0502250A 00004027665873176359 MBAN01002503100074029764 Ofelia Alejandra Jimenez
+27. SPEI ENVIADO AZTECA 0502250Bien 00004831121200462522 MBAN01002503100074422200 Bruno Gabriel Garcia Solares
+28. SPEI ENVIADO STP 05022500140714 00646180502800713654 MBAN01002503110081925204 Digital Deck SAPI de CV SOFOM ENR
+比较结论：
+- 所有28笔交易的描述字段均不包含关键词“Apuesta”、“médico / médic”或“juego”。
+- 根据决策结果，全部未命中，输出“正常”。
+hit判定理由：
+- 规则要求检查描述是否包含特定异常关键词。经检查，未发现任何匹配项，因此规则未命中（合规/一致）。
+- 根据规则定义，hit=false 表示规则未命中。</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>已严格按照判断逻辑、校验规则和决策结果执行。所有交易描述均不包含指定关键词，判定为正常。</t>
+          <t>已严格按照判断逻辑、校验规则和决策结果执行。所有交易描述均不包含规则指定的异常关键词。</t>
         </is>
       </c>
     </row>
@@ -1242,56 +1262,58 @@
         <is>
           <t>规则ID: MSTAR_BBVA_TIME_CHK_SPECIAL
 规则名称: 交易时间校验_特殊时间段交易
-执行步骤（严格按照判断逻辑）：
-步骤1：遍历‘Detalle de Movimientos Realizados’部分的28条记录，从‘描述’字段提取时间。
-- 记录1: 'FARM SAN PABLO RFC: PPL 961114GZ1 10:45 AUT: 534131' -&gt; 提取时间: 10:45
-- 记录2: 'RETIRO CAJERO AUTOMATICO FEB15 14:13 BBVA B023 FOLIO:8526' -&gt; 提取时间: 14:13
-- 记录3: 'RETIRO CAJERO AUTOMATICO FEB15 14:15 BBVA B023 FOLIO:8530' -&gt; 提取时间: 14:15
-- 记录4: 'FARM DEL AHORRO RFC: CFC 110121742 18:19 AUT: 619962' -&gt; 提取时间: 18:19
-- 记录5: 'MSFT STORE RFC: MME 910620Q85 17:08 AUT: 940435' -&gt; 提取时间: 17:08
-- 记录6: 'TOKS RC SAN MIGUEL RFC: RTO 840921RE4 16:51 AUT: 343999' -&gt; 提取时间: 16:51
-- 记录7: 'SPEI RECIBIDOMercado Pago...' -&gt; 描述中无时间，跳过。
-- 记录8: 'SPEI RECIBIDOTRANSFER...' -&gt; 描述中无时间，跳过。
-- 记录9: 'SPEI ENVIADO AZTECA...' -&gt; 描述中无时间，跳过。
-- 记录10: 'SPEI RECIBIDOAZTECA...' -&gt; 描述中无时间，跳过。
-- 记录11: 'MI ATT A APP PS RFC: CNM 980114PI2 03:24 AUT: 277353' -&gt; 提取时间: 03:24
-- 记录12: 'SPEI ENVIADO AZTECA...' -&gt; 描述中无时间，跳过。
-- 记录13: 'SPEI RECIBIDOBANAMEX...' -&gt; 描述中无时间，跳过。
-- 记录14: 'SPEI ENVIADO TRANSFER...' -&gt; 描述中无时间，跳过。
-- 记录15: 'SPEI RECIBIDOAZTECA...' -&gt; 描述中无时间，跳过。
-- 记录16: 'SPEI ENVIADO AZTECA...' -&gt; 描述中无时间，跳过。
-- 记录17: 'SPEI ENVIADO AZTECA...' -&gt; 描述中无时间，跳过。
-- 记录18: 'PAGO DE NOMINA PENSIONES...' -&gt; 描述中无时间，跳过。
-- 记录19: 'SPEI ENVIADO BANORTE...' -&gt; 描述中无时间，跳过。
-- 记录20: 'FARM SAN PABLO RFC: PPL 961114GZ1 14:04 AUT: 439763' -&gt; 提取时间: 14:04
-- 记录21: 'SPEI RECIBIDOSTP...' -&gt; 描述中无时间，跳过。
-- 记录22: 'PAGO CUENTA DE TERCERO...' -&gt; 描述中无时间，跳过。
-- 记录23: 'SPEI ENVIADO INBURSA...' -&gt; 描述中无时间，跳过。
-- 记录24: 'PAGO CUENTA DE TERCERO...' -&gt; 描述中无时间，跳过。
-- 记录25: 'PAGO CUENTA DE TERCERO...' -&gt; 描述中无时间，跳过。
-- 记录26: 'SPEI ENVIADO AZTECA...' -&gt; 描述中无时间，跳过。
-- 记录27: 'SPEI ENVIADO AZTECA...' -&gt; 描述中无时间，跳过。
-- 记录28: 'SPEI ENVIADO STP...' -&gt; 描述中无时间，跳过。
+执行步骤说明：
+步骤1：遍历Detalle de Movimientos Realizados的28条记录，从描述(description)中提取时间。
+- 记录1: "FARM SAN PABLO RFC: PPL 961114GZ1 10:45 AUT: 534131" -&gt; 提取时间: 10:45
+- 记录2: "RETIRO CAJERO AUTOMATICO FEB15 14:13 BBVA B023 FOLIO:8526" -&gt; 提取时间: 14:13
+- 记录3: "RETIRO CAJERO AUTOMATICO FEB15 14:15 BBVA B023 FOLIO:8530" -&gt; 提取时间: 14:15
+- 记录4: "FARM DEL AHORRO RFC: CFC 110121742 18:19 AUT: 619962" -&gt; 提取时间: 18:19
+- 记录5: "MSFT STORE RFC: MME 910620Q85 17:08 AUT: 940435" -&gt; 提取时间: 17:08
+- 记录6: "TOKS RC SAN MIGUEL RFC: RTO 840921RE4 16:51 AUT: 343999" -&gt; 提取时间: 16:51
+- 记录7: "SPEI RECIBIDOMercado Pago 1234567MERCADO*PAGO 00722969010622928160 CPO102907595674 LUIS ALBERTO FERNANDEZ GARCIA" -&gt; 无时间，跳过
+- 记录8: "SPEI RECIBIDOTRANSFER 0697909Payment 00684180093000000007 2025022090684AWS093B2257DF9B0C ATMX TECNOLOGIA S.A. DE C.V." -&gt; 无时间，跳过
+- 记录9: "SPEI ENVIADO AZTECA 0502250viaje 00004027665820229061 MBAN01002502210055790025 Fernando Trejo Peña" -&gt; 无时间，跳过
+- 记录10: "SPEI RECIBIDOAZTECA 2247230pago 00127180013023782852 250224070027657453I HERNANDEZ PALACIO OMAR EDGAR" -&gt; 无时间，跳过
+- 记录11: "MI ATT A APP PS RFC: CNM 980114PI2 03:24 AUT: 277353" -&gt; 提取时间: 03:24
+- 记录12: "SPEI ENVIADO AZTECA 0502250m 00004027665873176359 MBAN01002502240062208836 Ofelia Alejandra Jimenez" -&gt; 无时间，跳过
+- 记录13: "SPEI RECIBIDOBANAMEX 0250225transf 00002180701851485541 085901592990305657 OMAR EDGAR,HERNANDEZ/PALACIO" -&gt; 无时间，跳过
+- 记录14: "SPEI ENVIADO TRANSFER 0502250pago prestamo 25 02 2025 00684180093021753922 MBAN01002502250071057470 Yeye Cash" -&gt; 无时间，跳过
+- 记录15: "SPEI RECIBIDOAZTECA 2247230acta 00127180013692821607 250227010109232653I JIMENEZ FERNANDEZ OFELIA ALEJANDRA" -&gt; 无时间，跳过
+- 记录16: "SPEI ENVIADO AZTECA 0502250prueba 00004831121200462522 MBAN01002503030098623680 Bruno Gabriel Garcia Solares" -&gt; 无时间，跳过
+- 记录17: "SPEI ENVIADO AZJECA 0502250brunito 00004831121200462522 MBAN01002503030098639775 Bruno Gabriel Garcia Solares" -&gt; 无时间，跳过
+- 记录18: "PAGO DE NOMINA PENSIONES BANCOMER SA DE CV GFB" -&gt; 无时间，跳过
+- 记录19: "SPEI ENVIADO BANORTE 0502250colegMar25AaronFdz5toAzul 00072180006515343764 MBAN01002503040055267526 Abraham Lincoln SC" -&gt; 无时间，跳过
+- 记录20: "FARM SAN PABLO RFC: PPL 961114GZ1 14:04 AUT: 439763" -&gt; 提取时间: 14:04
+- 记录21: "SPEI RECIBIDOSTP 0140714Prestamo Cozmo 0140714 00646180502800000008 Cozmo00294536 DIGITAL DECK SAPI DE CV SOFOM ENR" -&gt; 无时间，跳过
+- 记录22: "PAGO CUENTA DE TERCERO BNET 1526105946 viaje" -&gt; 无时间，跳过
+- 记录23: "SPEI ENVIADO INBURSA 0502250viaje 00005399759406093376 MBAN01002503070069692550 Jorge Garcia" -&gt; 无时间，跳过
+- 记录24: "PAGO CUENTA DE TERCERO BNET 1598088118 viaje" -&gt; 无时间，跳过
+- 记录25: "PAGO CUENTA DE TERCERO BNET 1533862302 compra" -&gt; 无时间，跳过
+- 记录26: "SPEI ENVIADO AZTECA 0502250A 00004027665873176359 MBAN01002503100074029764 Ofelia Alejandra Jimenez" -&gt; 无时间，跳过
+- 记录27: "SPEI ENVIADO AZTECA 0502250Bien 00004831121200462522 MBAN01002503100074422200 Bruno Gabriel Garcia Solares" -&gt; 无时间，跳过
+- 记录28: "SPEI ENVIADO STP 05022500140714 00646180502800713654 MBAN01002503110081925204 Digital Deck SAPI de CV SOFOM ENR" -&gt; 无时间，跳过
 步骤2：将提取到的时间放入集合。提取到的时间有：10:45, 14:13, 14:15, 18:19, 17:08, 16:51, 03:24, 14:04。
 步骤3：统计处于2点至5点（包括2点和5点，24小时制）的交易笔数。
-- 时间 03:24 在 [02:00, 05:00] 区间内。
-- 其他时间均不在该区间内。
-统计结果：count = 1。
-校验规则（严格按照校验规则）：
-判断 count 是否大于 10。
-计算得出 count = 1。
-1 &gt; 10 为假。
-决策结果（严格按照决策结果）：
-由于 count &lt;= 10，输出“正常”。
-最终判定：
-- 统计的特殊时间段（02:00-05:00）交易笔数 count = 1。
-- 根据规则，count &lt;= 10 为正常。
-- 因此，hit = false（规则未命中，合规）。</t>
+- 检查每个时间：
+  * 10:45 -&gt; 不在2-5点区间
+  * 14:13 -&gt; 不在2-5点区间
+  * 14:15 -&gt; 不在2-5点区间
+  * 18:19 -&gt; 不在2-5点区间
+  * 17:08 -&gt; 不在2-5点区间
+  * 16:51 -&gt; 不在2-5点区间
+  * 03:24 -&gt; 在2-5点区间内，计数+1
+  * 14:04 -&gt; 不在2-5点区间
+- 统计结果：count = 1
+校验规则：判断 count 是否大于 10。
+- 当前 count = 1，1 &lt;= 10。
+决策结果：根据规则，count &lt;= 10 输出“正常”。
+结论：交易时间正常，未发现异常。
+hit值判定：根据决策结果“正常”，判定为未命中规则，hit=false。</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>所有描述字段中仅有一条记录（记录11）包含时间‘03:24’，该时间落在2点至5点区间内。总笔数为1，未超过规则设定的10笔阈值。</t>
+          <t>严格按照规则定义的步骤执行。从28条交易记录中，仅提取到8条包含明确时间的记录。其中只有1条记录（第11条，时间03:24）处于2点至5点的特殊时间段内。统计笔数count=1，未超过规则设定的阈值10，因此判定为合规。</t>
         </is>
       </c>
     </row>
